--- a/References/SEM SLR.xlsx
+++ b/References/SEM SLR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/emily_rampone_wsu_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R Projects\pathanalysismethods\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{EEC48C55-1213-4483-AAB7-CCE24FCC63B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB820B68-8530-4320-AEC7-7A917221A1E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33360CB6-C583-4082-B9D7-912961BA8F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="525" windowWidth="25995" windowHeight="13905" xr2:uid="{15239279-75C0-4CDC-B78A-F1FB0EC56501}"/>
+    <workbookView xWindow="5610" yWindow="1283" windowWidth="21975" windowHeight="13410" activeTab="1" xr2:uid="{15239279-75C0-4CDC-B78A-F1FB0EC56501}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="127">
   <si>
     <t>Paper</t>
   </si>
@@ -854,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,163 +864,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62477BFD-6FDE-4F8F-BFF9-07A571A997B0}">
   <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>112</v>
       </c>
@@ -1035,21 +1035,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E01CFE-976D-4763-954B-70A10A5D82BE}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" customWidth="1"/>
+    <col min="3" max="4" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="16.73046875" customWidth="1"/>
+    <col min="8" max="8" width="14.1328125" customWidth="1"/>
+    <col min="9" max="9" width="26.86328125" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1578,6 +1578,9 @@
       </c>
       <c r="H19" t="s">
         <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1594,13 +1597,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="102.42578125" customWidth="1"/>
+    <col min="2" max="2" width="102.3984375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1799,10 +1802,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K9" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="D12" s="3" t="s">
         <v>115</v>
       </c>

--- a/References/SEM SLR.xlsx
+++ b/References/SEM SLR.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R Projects\pathanalysismethods\References\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/emily_rampone_wsu_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33360CB6-C583-4082-B9D7-912961BA8F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1055" documentId="8_{EEC48C55-1213-4483-AAB7-CCE24FCC63B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1AD1110-F2E3-4F02-B155-D748D486E2AE}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1283" windowWidth="21975" windowHeight="13410" activeTab="1" xr2:uid="{15239279-75C0-4CDC-B78A-F1FB0EC56501}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{15239279-75C0-4CDC-B78A-F1FB0EC56501}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="3" r:id="rId1"/>
     <sheet name="Current" sheetId="2" r:id="rId2"/>
-    <sheet name="Old search phrase" sheetId="1" r:id="rId3"/>
+    <sheet name="For R" sheetId="5" r:id="rId3"/>
+    <sheet name="Old search phrase" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="362">
   <si>
     <t>Paper</t>
   </si>
@@ -154,15 +155,9 @@
     <t>Agriculture</t>
   </si>
   <si>
-    <t>Results: 96</t>
-  </si>
-  <si>
     <t>Direct and indirect effects of agricultural practices, landscape complexity and climate on insectivorous birds, pest abundance and damage in olive groves</t>
   </si>
   <si>
-    <t>Martinez-Nunez et al</t>
-  </si>
-  <si>
     <t>Agriculture Ecosystems &amp; Environment</t>
   </si>
   <si>
@@ -172,27 +167,18 @@
     <t>The interactive effects of livestock exclusion and mammalian pest control on the restoration of invertebrate communities in small forest remnants</t>
   </si>
   <si>
-    <t>Didham et al</t>
-  </si>
-  <si>
     <t>New Zealand Journal of Zoology</t>
   </si>
   <si>
     <t>Who is the culprit: Is pest infestation responsible for crop yield losses close to semi-natural habitats?</t>
   </si>
   <si>
-    <t>Raatz et al</t>
-  </si>
-  <si>
     <t>Ecology and Evolution</t>
   </si>
   <si>
     <t>The direct and indirect effects of fire on the assembly of insect herbivore communities: examples from the Florida scrub habitat</t>
   </si>
   <si>
-    <t>Kim and Holt</t>
-  </si>
-  <si>
     <t>Oecologia</t>
   </si>
   <si>
@@ -208,15 +194,9 @@
     <t>Changes in arthropod communities mediate the effects of landscape composition and farm management on pest control ecosystem services in organically managed strawberry crops</t>
   </si>
   <si>
-    <t xml:space="preserve">Lu et al </t>
-  </si>
-  <si>
     <t>Decline in riparian Tsuga canadensis forests of the central Appalachians across an Adelges tsugae invasion chronosequence</t>
   </si>
   <si>
-    <t>Martin and Goebel</t>
-  </si>
-  <si>
     <t>Journal of the Torrey Botanical Society</t>
   </si>
   <si>
@@ -229,15 +209,9 @@
     <t>Multivariate relationships influencing crop yields during the transition to organic management</t>
   </si>
   <si>
-    <t>Schipanski et al</t>
-  </si>
-  <si>
     <t>Pesticide use in cereal production in Moghan Plain, Iran: Risk knowledge and farmers' attitudes</t>
   </si>
   <si>
-    <t xml:space="preserve">Bondori et al </t>
-  </si>
-  <si>
     <t>Crop Protection</t>
   </si>
   <si>
@@ -247,9 +221,6 @@
     <t>Indirect effects of deer on insect pests and soybean plants</t>
   </si>
   <si>
-    <t>VanGorder et al</t>
-  </si>
-  <si>
     <t>Agricultural and Forest Entomology</t>
   </si>
   <si>
@@ -259,18 +230,12 @@
     <t>Elevated temperature reduces wheat grain yield by increasing pests and decreasing soil mutualists</t>
   </si>
   <si>
-    <t xml:space="preserve">Tian et al </t>
-  </si>
-  <si>
     <t>Pest Management Science</t>
   </si>
   <si>
     <t>Elevated atmospheric carbon dioxide concentrations alter root morphology and reduce the effectiveness of entomopathogenic nematodes</t>
   </si>
   <si>
-    <t>Hiltpold et al</t>
-  </si>
-  <si>
     <t>Plant and Soil</t>
   </si>
   <si>
@@ -289,9 +254,6 @@
     <t>Going undercover: increasing canopy cover around a host tree drives associational resistance to an insect pest</t>
   </si>
   <si>
-    <t>Muiruri and Koricheva</t>
-  </si>
-  <si>
     <t>Oikos</t>
   </si>
   <si>
@@ -304,9 +266,6 @@
     <t>High agricultural intensity at the landscape scale benefits pests, but low intensity practices at the local scale can mitigate these effects</t>
   </si>
   <si>
-    <t>Emery et al</t>
-  </si>
-  <si>
     <t>Biological Control</t>
   </si>
   <si>
@@ -316,18 +275,12 @@
     <t>Non-crop habitats concurrently drive crop colonization by the millet head miner and regulation by natural enemies</t>
   </si>
   <si>
-    <t>Sow et al</t>
-  </si>
-  <si>
     <t>Basic and Applied Ecology</t>
   </si>
   <si>
     <t>Changes in host basal area explain associational resistance of mixed forests to primary pests</t>
   </si>
   <si>
-    <t>Poeydebat et al</t>
-  </si>
-  <si>
     <t>Forest Ecology and Management</t>
   </si>
   <si>
@@ -377,9 +330,6 @@
   </si>
   <si>
     <t>Determined tags from abstract.  If unclear if the paper met the requirements, skimmed the journal article to ensure it imcluded SEM with insect pests.</t>
-  </si>
-  <si>
-    <t>Other Notes (J)</t>
   </si>
   <si>
     <t xml:space="preserve">Search phrase: (“path analysis” OR "structural equation model*" OR "SEM" NOT “scanning electron microscop*”)  AND "insect*" AND "pest" </t>
@@ -488,6 +438,822 @@
       </rPr>
       <t xml:space="preserve"> to avoid picking up information in author/journal descriptions</t>
     </r>
+  </si>
+  <si>
+    <t>Landscape-Insect Interactions</t>
+  </si>
+  <si>
+    <t>Pollination, Farming practices-Insect Interactions</t>
+  </si>
+  <si>
+    <t>Samnegard</t>
+  </si>
+  <si>
+    <t>Hamback</t>
+  </si>
+  <si>
+    <t>IPM</t>
+  </si>
+  <si>
+    <t>IPM, Diversity, Management-Insect-Plant Interactions</t>
+  </si>
+  <si>
+    <t>Landscape-Plant Interactions</t>
+  </si>
+  <si>
+    <t>Contrasting effects of landscape composition on crop yield mediated by specialist herbivores</t>
+  </si>
+  <si>
+    <t>Perez-Alvarez</t>
+  </si>
+  <si>
+    <t>Poveda</t>
+  </si>
+  <si>
+    <t>Ecological Applications</t>
+  </si>
+  <si>
+    <t>Pest Prevalence and Evaluation of Community-Wide Integrated Pest Management for Reducing Cockroach Infestations and Indoor Insecticide Residues</t>
+  </si>
+  <si>
+    <t>Zha</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Ecosystem Services</t>
+  </si>
+  <si>
+    <t>IPM, Insecticdes</t>
+  </si>
+  <si>
+    <t>EXCLUDE NOT SEM</t>
+  </si>
+  <si>
+    <t>Entomopathogen and parasitic medley from pest collinear ecosystem</t>
+  </si>
+  <si>
+    <t>Shanthakumar</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Aclees sp. cf. foveatus, a real threat to Ficus carica in the Mediterranean area</t>
+  </si>
+  <si>
+    <t>Gargani</t>
+  </si>
+  <si>
+    <t>Cutino</t>
+  </si>
+  <si>
+    <t>EXCLUDE symposium not journal</t>
+  </si>
+  <si>
+    <t>Virulence of the entomopathogenic fungus Metarhizium anisopliae using soybean oil formulation for control of the cotton stainer bug, Dysdercus peruvianus</t>
+  </si>
+  <si>
+    <t>Santi</t>
+  </si>
+  <si>
+    <t>Vainstein</t>
+  </si>
+  <si>
+    <t>Biocontrol Efficacy of Mycosynthesized Selenium Nanoparticle Using Trichoderma sp. on Insect Pest Spodoptera litura</t>
+  </si>
+  <si>
+    <t>Estimates of the direct and indirect effects of red imported fire ants on biological control in field crops</t>
+  </si>
+  <si>
+    <t>Eubanks</t>
+  </si>
+  <si>
+    <t>Arunthirumeni</t>
+  </si>
+  <si>
+    <t>Shivakumar</t>
+  </si>
+  <si>
+    <t>Insect-Insect Interactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intraguild predation </t>
+  </si>
+  <si>
+    <t>Ethology of Sunn-pest oviposition in interaction with deltamethrin loaded on mesoporous silica nanoparticles as a nanopesticide</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Hutchison</t>
+  </si>
+  <si>
+    <t>Alizadeh</t>
+  </si>
+  <si>
+    <t>Bandehagh</t>
+  </si>
+  <si>
+    <t>Characterization of Trigonella foenum-graecum Derived Iron Nanoparticles and Its Potential Pesticidal Activity Against Tuta absoluta (Lepidoptera)</t>
+  </si>
+  <si>
+    <t>Ramkumar</t>
+  </si>
+  <si>
+    <t>Gayathri</t>
+  </si>
+  <si>
+    <t>Journal of Cluster Science</t>
+  </si>
+  <si>
+    <t>Influence of crop management practices on bean foliage arthropods</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Bulletin of Entomological Research</t>
+  </si>
+  <si>
+    <t>Soil-Insect Interactions</t>
+  </si>
+  <si>
+    <t>IPM, soil management, Soil-Plant Interactions</t>
+  </si>
+  <si>
+    <t>Urban warming trumps natural enemy regulation of herbivorous pests</t>
+  </si>
+  <si>
+    <t>Dale</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>urban trees - called it forest??</t>
+  </si>
+  <si>
+    <t>Path analysis based on genetic association of yield components and insects pest in upland cotton varieties</t>
+  </si>
+  <si>
+    <t>Shaheen</t>
+  </si>
+  <si>
+    <t>Alamri</t>
+  </si>
+  <si>
+    <t>PLOS ONE</t>
+  </si>
+  <si>
+    <t>yeild maxmization</t>
+  </si>
+  <si>
+    <t>Plant Trait - Yield Interactions</t>
+  </si>
+  <si>
+    <t>Cellulose acetate/organoclay nanocomposites as controlled release matrices for pest control applications</t>
+  </si>
+  <si>
+    <t>Mphateng</t>
+  </si>
+  <si>
+    <t>Focke</t>
+  </si>
+  <si>
+    <t>Cellulose</t>
+  </si>
+  <si>
+    <t>Agrochemical loaded biocompatible chitosan nanoparticles for insect pest management</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Khatri</t>
+  </si>
+  <si>
+    <t>Biocatalysis and Agricultural Biotechnology</t>
+  </si>
+  <si>
+    <t>Bioecology of the guava weevil Conotrachelus psidii Marshall (Coleoptera: Curculionidae)</t>
+  </si>
+  <si>
+    <t>Moraes</t>
+  </si>
+  <si>
+    <t>Silva</t>
+  </si>
+  <si>
+    <t>rainfall and temperature affect insect occurance</t>
+  </si>
+  <si>
+    <t>Insect-Climate Interactions</t>
+  </si>
+  <si>
+    <t>Insecticidal Control of Megacopta cribraria (Hemiptera: Plataspidae) in Soybean</t>
+  </si>
+  <si>
+    <t>Seiter</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Journal of Entomological Science</t>
+  </si>
+  <si>
+    <t>Insect-Insecticide Interactions</t>
+  </si>
+  <si>
+    <t>insecticide treatments in soybeans</t>
+  </si>
+  <si>
+    <t>Interacting Agricultural Pests and Their Effect on Crop Yield: Application of a Bayesian Decision Theory Approach to the Joint Management of Bromus tectorum and Cephus cinctus</t>
+  </si>
+  <si>
+    <t>Keren</t>
+  </si>
+  <si>
+    <t>Robinson-Cox</t>
+  </si>
+  <si>
+    <t>indirect effects</t>
+  </si>
+  <si>
+    <t>Hemocytes of Rhynchophorus ferrugineus (Olivier) (Coleoptera: Curculionidae) and their response to Saccharomyces cerevisiae and Bacillus thuringiensis</t>
+  </si>
+  <si>
+    <t>Manachini</t>
+  </si>
+  <si>
+    <t>Parrinello</t>
+  </si>
+  <si>
+    <t>Journal of Invertebrate Pathology</t>
+  </si>
+  <si>
+    <t>Boophilus microplus infection by beauveria amorpha and Beauveria bassiana: SEM analysis and regulation of subtilisin-like proteases and chitinases</t>
+  </si>
+  <si>
+    <t>Campos</t>
+  </si>
+  <si>
+    <t>Characterization and biotoxicity of Hypnea musciformis-synthesized silver nanoparticles as potential eco-friendly control tool against Aedes aegypti and Plutella xylostella</t>
+  </si>
+  <si>
+    <t>Roni</t>
+  </si>
+  <si>
+    <t>Benelli</t>
+  </si>
+  <si>
+    <t>Ecotoxicology and Environmental Safety</t>
+  </si>
+  <si>
+    <t>Microparticles of poly(hydroxybutyrate-co-hydroxyvalerate) loaded with andiroba oil: Preparation and characterization</t>
+  </si>
+  <si>
+    <t>Senhorini</t>
+  </si>
+  <si>
+    <t>Marques</t>
+  </si>
+  <si>
+    <t>MATERIALS SCIENCE &amp; ENGINEERING C-MATERIALS FOR BIOLOGICAL APPLICATIONS</t>
+  </si>
+  <si>
+    <t>Developing Sampling Plans for the Invasive Megacopta cribraria (Hemiptera: Plataspidae) in Soybean</t>
+  </si>
+  <si>
+    <t>Stubbins</t>
+  </si>
+  <si>
+    <t>Reay-Jones</t>
+  </si>
+  <si>
+    <t>std error of the mean</t>
+  </si>
+  <si>
+    <t>Walking behaviour in the ground beetle, Poecilus cupreus: dispersal potential, intermittency and individual variation</t>
+  </si>
+  <si>
+    <t>Bailey</t>
+  </si>
+  <si>
+    <t>Codling</t>
+  </si>
+  <si>
+    <t>Date con</t>
+  </si>
+  <si>
+    <t>dispersal</t>
+  </si>
+  <si>
+    <t>Insect-Movement Interactions</t>
+  </si>
+  <si>
+    <t>Synthesis of Cordyceps fumosorosea-Biochar Nanoparticles and Their Effects on Growth and Survival of Bemisia tabaci (Gennadius)</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Frontiers in Microbiology</t>
+  </si>
+  <si>
+    <t>INSIGHTS INTO THE FUNCTIONAL POTENTIAL OF THE RICE WEEVIL ROSTRUM BASED ON MICROSTRUCTURE</t>
+  </si>
+  <si>
+    <t>Manivannan</t>
+  </si>
+  <si>
+    <t>Ezhilvendan</t>
+  </si>
+  <si>
+    <t>Journal of Animal and Plant Sciences</t>
+  </si>
+  <si>
+    <t>Exposure risks and ineffectiveness of total release foggers (TRFs) used for cockroach control in residential settings</t>
+  </si>
+  <si>
+    <t>Natural nanopesticides with origin of Plantago major seeds extract for Tribolium castaneum control</t>
+  </si>
+  <si>
+    <t>Khoshraftar</t>
+  </si>
+  <si>
+    <t>Zaefizadeh</t>
+  </si>
+  <si>
+    <t>Journal of nano</t>
+  </si>
+  <si>
+    <t>Streptomyces spp. Isolated from Marine and Caatinga Biomes in Brazil for the Biological Control of Duponchelia fovealis</t>
+  </si>
+  <si>
+    <t>Validation of the 16S rDNA and COI DNA Barcoding Technique for Rapid Molecular Identification of Stored Product Psocids (Insecta: Psocodea: Liposcelididae)</t>
+  </si>
+  <si>
+    <t>Foraging Phenology of the Fungus-Growing Termite Odontotermes formosanus (Blattodea: Termitidae)</t>
+  </si>
+  <si>
+    <t>Chui</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Environmental Entomology</t>
+  </si>
+  <si>
+    <t>fungus-growing termite</t>
+  </si>
+  <si>
+    <t>Meteorological driven factors of population growth in brown planthopper, Nilaparvata lugens Stal (Hemiptera: Delphacidae), in rice paddies</t>
+  </si>
+  <si>
+    <t>Entomological Research</t>
+  </si>
+  <si>
+    <t>rice paddies</t>
+  </si>
+  <si>
+    <t>Structural Differences in the Digestive Tract Between Females and Males Could Modulate Regurgitation Behavior in Anastrepha ludens (Diptera: Tephritidae)</t>
+  </si>
+  <si>
+    <t>Biosynthesis of copper nanoparticles using symbiotic bacterium Xenorhabdus sp, isolated from entomopathogenic nematode and its antimicrobial and insecticidal activity against Spodoptera litura</t>
+  </si>
+  <si>
+    <t>Larvicidal, antibacterial, antibiofilm, and anti-quorum sensing activities of silver nanoparticles biosynthesized from Streptomyces sclerotialus culture filtrate</t>
+  </si>
+  <si>
+    <t>Potential and Futuristics of Fly Ash Nanoparticle Technology in Pest Control in Agriculture and Synthesis of Chemical and Herbal Insecticides Formulations</t>
+  </si>
+  <si>
+    <t>Sensilla on the Antennae, Legs and Ovipositor of Spathius agrili Yang (Hymenoptera: Braconidae), A Parasitoid of the Emerald Ash Borer Agrilus planipennis Fairmaire (Coleoptera: Buprestidae)</t>
+  </si>
+  <si>
+    <t>Laboratory infestation of cotton bolls by Mediterranean fruit fly (Diptera : Tephritidae)</t>
+  </si>
+  <si>
+    <t>Ultrastructure of Antennal Morphology and Sensilla of Teak Skeletonizer, Eutectona machaeralis Walker (Lepidoptera: Crambidae)</t>
+  </si>
+  <si>
+    <t>Effect of High and Low Temperatures on the Drugstore Beetle (Coleoptera: Anobiidae)</t>
+  </si>
+  <si>
+    <t>Modelling Monochamus galloprovincialis dispersal trajectories across a heterogeneous landscape to optimize monitoring by trapping networks</t>
+  </si>
+  <si>
+    <t>Nunes</t>
+  </si>
+  <si>
+    <t>Jaactel</t>
+  </si>
+  <si>
+    <t>Landscape Ecology</t>
+  </si>
+  <si>
+    <t>Mortality and testicular derangements in red flour beetles, Tribolium castaneum (Herbst) exposed to hen's egg white proteins</t>
+  </si>
+  <si>
+    <t>Soybean Aphid and Soybean Cyst Nematode Interactions in the Field and Effects on Soybean Yield</t>
+  </si>
+  <si>
+    <t>Hong</t>
+  </si>
+  <si>
+    <t>Gratton</t>
+  </si>
+  <si>
+    <t>Above-below ground interations</t>
+  </si>
+  <si>
+    <t>Physical and chemical traits affecting the oviposition preference of honeysuckle geometrid, Heterolocha jinyinhuaphaga Chu among honeysuckle varieties</t>
+  </si>
+  <si>
+    <t>Xiang</t>
+  </si>
+  <si>
+    <t>Arthropod-Plant Interactions</t>
+  </si>
+  <si>
+    <t>Plant-Insect Interaction</t>
+  </si>
+  <si>
+    <t>Oviposition preferences</t>
+  </si>
+  <si>
+    <t>First Case of Dual Size Asymmetry in an Identical Arthropod Organ: Different Asymmetries of the Combative (Sexual) and Cutting (Non-Sexual) Parts of Mandibles in the Horned Stored-Product Beetle Gnatocerus cornutus (Fabricius, 1798)</t>
+  </si>
+  <si>
+    <t>Vendl</t>
+  </si>
+  <si>
+    <t>Aulicky</t>
+  </si>
+  <si>
+    <t>Insects</t>
+  </si>
+  <si>
+    <t>Silver and copper-oxide nanoparticles prepared with GA3 induced defense in rice plants and caused mortalities to the brown planthopper, Nilaparvata lugens (Stal)</t>
+  </si>
+  <si>
+    <t>A micro-CT approach for determination of insect respiratory volume</t>
+  </si>
+  <si>
+    <t>Sustainable landscape, soil and crop management practices enhance biodiversity and yield in conventional cereal systems</t>
+  </si>
+  <si>
+    <t>Redlich</t>
+  </si>
+  <si>
+    <t>Steffan-Dewenter</t>
+  </si>
+  <si>
+    <t>Landscape-Soil-Insect Interactions</t>
+  </si>
+  <si>
+    <t>Biodiverisity in cropping systems</t>
+  </si>
+  <si>
+    <t>Biocontrol potential of Halotolerant bacterial chitinase from high yielding novel Bacillus Pumilus MCB-7 autochthonous to mangrove ecosystem</t>
+  </si>
+  <si>
+    <t>Rishad</t>
+  </si>
+  <si>
+    <t>Jisha</t>
+  </si>
+  <si>
+    <t>Pesticide Biochemistry and Physiology</t>
+  </si>
+  <si>
+    <t>Evaluation of the ability of indigenous nematode isolates of Heterorhabditis taysearae and Steinernema kandii to control mango fruit fly Bactrocera dorsalis under laboratory, semi-field and field conditions in Northern Benin</t>
+  </si>
+  <si>
+    <t>Characterization and field evaluation of tetrahedral and triangular nucleopolyhedrovirus ofSpilosoma obliqua(SpobNPV) strain NBAIR1 against jute hairy caterpillar</t>
+  </si>
+  <si>
+    <t>Sampling Stink Bugs (Hemiptera: Pentatomidae) for Population Estimation and Pest Management in Southeastern Cotton Production</t>
+  </si>
+  <si>
+    <t>Reeves</t>
+  </si>
+  <si>
+    <t>Elucidation of Hosts, Native Distribution, and Habitat of the Coffee Berry Borer (Hypothenemus hampei) Using Herbaria and Other Museum Collections</t>
+  </si>
+  <si>
+    <t>Ultrastructure and distribution of antennal sensilla of the chilli thrips Scirtothrips dorsalis hood (Thysanoptera: Thripidae)</t>
+  </si>
+  <si>
+    <t>Identification of resistance of Guangxi (Oryza rufipogon Griff.) to white-backed planthopper with stem evaluation method</t>
+  </si>
+  <si>
+    <t>Mycosynthesis of bimetallic zinc oxide and titanium dioxide nanoparticles for control of Spodoptera frugiperda</t>
+  </si>
+  <si>
+    <t>An optical microbial biosensor for detection of methyl parathion using Sphingomonas sp immobilized on microplate as a reusable biocomponent</t>
+  </si>
+  <si>
+    <t>Kaolin nano-powder effect on insect attachment ability</t>
+  </si>
+  <si>
+    <t>Thermal survival limits of larvae and adults of Sirex noctilio (Hymenoptera: Siricidae) in China</t>
+  </si>
+  <si>
+    <t>Characterization of a Gloverin-Like Antimicrobial Peptide Isolated from Muga Silkworm, Antheraea assamensis</t>
+  </si>
+  <si>
+    <t>Development and validation of a fixed-precision sampling plan for estimating striped cucumber beetle (Coleoptera : Chrysomelidae) density in cucurbits</t>
+  </si>
+  <si>
+    <t>Andean Flora as a Source of New Repellents against Insect Pests: Behavioral, Morphological and Electrophysiological Studies on Sitophilus zeamais (Coleoptera: Curculionidae)</t>
+  </si>
+  <si>
+    <t>Toxicological behavior of entomopathogenic fungi with insecticides: in vitro growth efficacies and conidial processes on mite cuticle</t>
+  </si>
+  <si>
+    <t>Characterization and bio-efficacy of entomopathogenic Beauveria associated with cuticle-degrading enzymes to restrain sucking pest Bemisia tabaci</t>
+  </si>
+  <si>
+    <t>Mechanical ecology of fruit-insect interaction in the adult Mediterranean fruit fly Ceratitis capitata (Diptera: Tephritidae)</t>
+  </si>
+  <si>
+    <t>Distribution patterns and morphology of sensilla on the antennae of Plutella xylostella (L.)-A scanning and transmission electron microscopic study</t>
+  </si>
+  <si>
+    <t>Watermelon bug (Aspongopus viduatus) full-fat meals as an alternative dietary protein on broiler chickens' growth performance, meat, and blood</t>
+  </si>
+  <si>
+    <t>Reproductive Behavior of Biosteres arisanus (Sonan) (Hymenoptera:Braconidae), an Egg-Larval Parasitoid of the Oriental Fruit Fly</t>
+  </si>
+  <si>
+    <t>Sargassum wightii-synthesized ZnO nanoparticles reduce the fitness and reproduction of the malaria vector Anopheles stephensi and cotton bollworm Helicoverpa armigera</t>
+  </si>
+  <si>
+    <t>SPATIAL-DISTRIBUTION OF PREIMAGINAL BEMISIA-TABACI (HOMOPTERA, ALEYRODIDAE) IN COTTON AND DEVELOPMENT OF FIXED-PRECISION SEQUENTIAL SAMPLING PLANS</t>
+  </si>
+  <si>
+    <t>Effects of acclimation and diapause on the cold tolerance of Trogoderma granarium</t>
+  </si>
+  <si>
+    <t>Fine Morphology of Antennal and Ovipositor Sensory Structures of the Gall Chestnut Wasp, Dryocosmus kuriphilus</t>
+  </si>
+  <si>
+    <t>Unraveling the Mode of Action of Cordyceps fumosorosea: Potential Biocontrol Agent against Plutella xylostella (Lepidoptera: Plutellidae)</t>
+  </si>
+  <si>
+    <t>INSECTIVOROUS ACTIVITIES OF SPIDERS IN UNITED-STATES FIELD CROPS</t>
+  </si>
+  <si>
+    <t>Dominance and fitness costs of insect resistance to genetically modified Bacillus thuringiensis crops</t>
+  </si>
+  <si>
+    <t>Interaction between Metarhizium anisopliae and Its Host, the Subterranean Termite Coptotermes curvignathus during the Infection Process</t>
+  </si>
+  <si>
+    <t>Variable relationships between trait diversity and avian ecological functions in agroecosystems</t>
+  </si>
+  <si>
+    <t>Pena</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Functional Ecology</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>Watts</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>Holt</t>
+  </si>
+  <si>
+    <t>Martinez-Nunez</t>
+  </si>
+  <si>
+    <t>Raatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lu </t>
+  </si>
+  <si>
+    <t>Kremen</t>
+  </si>
+  <si>
+    <t>Goebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schipanski </t>
+  </si>
+  <si>
+    <t>Kaye</t>
+  </si>
+  <si>
+    <t>Damalas</t>
+  </si>
+  <si>
+    <t>Bondori</t>
+  </si>
+  <si>
+    <t>VanGorder</t>
+  </si>
+  <si>
+    <t>Crist</t>
+  </si>
+  <si>
+    <t>Ding</t>
+  </si>
+  <si>
+    <t>Tian</t>
+  </si>
+  <si>
+    <t>Tag4_General</t>
+  </si>
+  <si>
+    <t>Disturbance</t>
+  </si>
+  <si>
+    <t>Landscape-Plant-Insect Interactions</t>
+  </si>
+  <si>
+    <t>Invasive Species</t>
+  </si>
+  <si>
+    <t>Crop Management</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Species Interactions</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Hiltpold</t>
+  </si>
+  <si>
+    <t>Koricheva</t>
+  </si>
+  <si>
+    <t>Muiruri</t>
+  </si>
+  <si>
+    <t>Ecosystem Function</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t>Emery</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Larson</t>
+  </si>
+  <si>
+    <t>Brevault</t>
+  </si>
+  <si>
+    <t>Sow</t>
+  </si>
+  <si>
+    <t>Landscape Composition</t>
+  </si>
+  <si>
+    <t>Poeydebat</t>
+  </si>
+  <si>
+    <t>RETRACTIONPath analysis based on genetic association of yield components and insects pest in upland cotton varieties (Retraction of Vol 17, art no E0260971, 2022)</t>
+  </si>
+  <si>
+    <t>EXCLUDE RETRACTION</t>
+  </si>
+  <si>
+    <t>Toxicological Effects of Silver and Zinc Oxide Nanoparticles on the Biological and Life Table Parameters of Helicoverpa armigera (Noctuidae: Lepidoptera)</t>
+  </si>
+  <si>
+    <t>Asgar</t>
+  </si>
+  <si>
+    <t>Abd Al Galil</t>
+  </si>
+  <si>
+    <t>Agrigulctural-Basel</t>
+  </si>
+  <si>
+    <t>Dispersal</t>
+  </si>
+  <si>
+    <t>Oviposition</t>
+  </si>
+  <si>
+    <t>Other Notes (K)</t>
+  </si>
+  <si>
+    <t>Date completed: 1/17/23</t>
+  </si>
+  <si>
+    <t>Results: 99</t>
+  </si>
+  <si>
+    <t>Tag4_General (J) - if I had to sum up the article in a word or two</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Current Tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - used the search term above</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - is the version withteh EXCLUDE NOT SEM papers removed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Old search phrase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - used a previous search phrase</t>
+    </r>
+  </si>
+  <si>
+    <t>TABS</t>
   </si>
 </sst>
 </file>
@@ -543,11 +1309,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,7 +1621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -862,167 +1629,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62477BFD-6FDE-4F8F-BFF9-07A571A997B0}">
-  <dimension ref="B1:D34"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
-        <v>112</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>358</v>
+      </c>
+      <c r="C51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -1033,23 +1893,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E01CFE-976D-4763-954B-70A10A5D82BE}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J72" sqref="A1:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.1328125" customWidth="1"/>
-    <col min="3" max="4" width="15.3984375" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" customWidth="1"/>
-    <col min="8" max="8" width="14.1328125" customWidth="1"/>
-    <col min="9" max="9" width="26.86328125" customWidth="1"/>
-    <col min="10" max="10" width="16.265625" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="10" width="26.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1057,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1069,34 +1932,39 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>312</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="E2">
         <v>2020</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>37</v>
@@ -1105,24 +1973,30 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
       </c>
       <c r="E3">
         <v>2009</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>37</v>
@@ -1131,24 +2005,30 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>313</v>
+      </c>
+      <c r="D4" t="s">
+        <v>310</v>
       </c>
       <c r="E4">
         <v>2021</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -1157,47 +2037,59 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>314</v>
+      </c>
+      <c r="D5" t="s">
+        <v>311</v>
       </c>
       <c r="E5">
         <v>2012</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <v>327</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>316</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -1212,53 +2104,65 @@
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+      <c r="J6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>312</v>
+      </c>
+      <c r="D7" t="s">
+        <v>317</v>
       </c>
       <c r="E7">
         <v>2012</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <v>329</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>318</v>
+      </c>
+      <c r="D8" t="s">
+        <v>319</v>
       </c>
       <c r="E8">
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -1269,22 +2173,28 @@
       <c r="I8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
       </c>
       <c r="E9">
         <v>2018</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -1293,24 +2203,30 @@
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>322</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
       </c>
       <c r="E10">
         <v>2021</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
@@ -1322,24 +2238,30 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <v>332</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>325</v>
+      </c>
+      <c r="D11" t="s">
+        <v>324</v>
       </c>
       <c r="E11">
         <v>2019</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -1351,24 +2273,30 @@
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>334</v>
+      </c>
+      <c r="D12" t="s">
+        <v>333</v>
       </c>
       <c r="E12">
         <v>2020</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -1380,27 +2308,33 @@
         <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>335</v>
       </c>
       <c r="E13">
         <v>2017</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1408,22 +2342,28 @@
       <c r="I13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>339</v>
+      </c>
+      <c r="D14" t="s">
+        <v>338</v>
       </c>
       <c r="E14">
         <v>2021</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -1432,10 +2372,13 @@
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1443,16 +2386,19 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>341</v>
+      </c>
+      <c r="D15" t="s">
+        <v>340</v>
       </c>
       <c r="E15">
         <v>2007</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1461,114 +2407,129 @@
         <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>304</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>305</v>
+      </c>
+      <c r="D16" t="s">
+        <v>306</v>
       </c>
       <c r="E16">
         <v>2022</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>307</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="E17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E18">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E19">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -1580,16 +2541,3181 @@
         <v>15</v>
       </c>
       <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20">
+        <v>2022</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21">
+        <v>2019</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23">
+        <v>2018</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" t="s">
+        <v>337</v>
+      </c>
+      <c r="K23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>331</v>
+      </c>
+      <c r="E29">
+        <v>2001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2006</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34">
+        <v>2010</v>
+      </c>
+      <c r="F34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J34" t="s">
+        <v>330</v>
+      </c>
+      <c r="K34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35">
+        <v>2014</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36">
+        <v>2021</v>
+      </c>
+      <c r="F36" t="s">
+        <v>166</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" t="s">
+        <v>330</v>
+      </c>
+      <c r="K36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39">
+        <v>2021</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40">
+        <v>2015</v>
+      </c>
+      <c r="F40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>186</v>
+      </c>
+      <c r="J40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E41">
+        <v>2015</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>330</v>
+      </c>
+      <c r="K41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2005</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47">
+        <v>2021</v>
+      </c>
+      <c r="F47" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>215</v>
+      </c>
+      <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54">
+        <v>2018</v>
+      </c>
+      <c r="F54" t="s">
+        <v>234</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>181</v>
+      </c>
+      <c r="J54" t="s">
+        <v>330</v>
+      </c>
+      <c r="K54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55">
+        <v>2017</v>
+      </c>
+      <c r="F55" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>181</v>
+      </c>
+      <c r="J55" t="s">
+        <v>330</v>
+      </c>
+      <c r="K55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64">
+        <v>2021</v>
+      </c>
+      <c r="F64" t="s">
+        <v>250</v>
+      </c>
+      <c r="G64" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>110</v>
+      </c>
+      <c r="J64" t="s">
+        <v>352</v>
+      </c>
+      <c r="K64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66">
+        <v>2011</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>157</v>
+      </c>
+      <c r="J66" t="s">
+        <v>330</v>
+      </c>
+      <c r="K66" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67">
+        <v>2019</v>
+      </c>
+      <c r="F67" t="s">
+        <v>258</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="K67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>267</v>
+      </c>
+      <c r="C72" t="s">
+        <v>268</v>
+      </c>
+      <c r="D72" t="s">
+        <v>269</v>
+      </c>
+      <c r="E72">
+        <v>2021</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>270</v>
+      </c>
+      <c r="J72" t="s">
+        <v>344</v>
+      </c>
+      <c r="K72" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2009</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2941505-4069-4442-AB5D-B5BD7283DBB9}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3">
+        <v>2009</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4">
+        <v>2021</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E5">
+        <v>2012</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7">
+        <v>2012</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8">
+        <v>2014</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9">
+        <v>2018</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10">
+        <v>2021</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11">
+        <v>2019</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12">
+        <v>2020</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E13">
+        <v>2017</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" t="s">
+        <v>338</v>
+      </c>
+      <c r="E14">
+        <v>2021</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15">
+        <v>2007</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E16">
+        <v>2022</v>
+      </c>
+      <c r="F16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17">
+        <v>2022</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
+        <v>2021</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19">
+        <v>2012</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20">
+        <v>2022</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21">
+        <v>2019</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22">
+        <v>2018</v>
+      </c>
+      <c r="F22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>331</v>
+      </c>
+      <c r="E23">
+        <v>2001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24">
+        <v>2010</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25">
+        <v>2014</v>
+      </c>
+      <c r="F25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26">
+        <v>2021</v>
+      </c>
+      <c r="F26" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27">
+        <v>2021</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28">
+        <v>2015</v>
+      </c>
+      <c r="F28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29">
+        <v>2015</v>
+      </c>
+      <c r="F29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30">
+        <v>2021</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31">
+        <v>2018</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>181</v>
+      </c>
+      <c r="J31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32">
+        <v>2017</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>181</v>
+      </c>
+      <c r="J32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" t="s">
+        <v>249</v>
+      </c>
+      <c r="E33">
+        <v>2021</v>
+      </c>
+      <c r="F33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34">
+        <v>2011</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" t="s">
+        <v>217</v>
+      </c>
+      <c r="E35">
+        <v>2019</v>
+      </c>
+      <c r="F35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36">
+        <v>2021</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFDD0E5-EF7F-4141-86CE-C914C21092E6}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -1597,13 +5723,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="102.3984375" customWidth="1"/>
+    <col min="2" max="2" width="102.42578125" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1632,7 +5758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1658,7 +5784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1684,7 +5810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1710,7 +5836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1736,7 +5862,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1762,7 +5888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1785,7 +5911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1802,12 +5928,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K9" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
